--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -444,8 +444,10 @@
           <t>Iphone 11</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>4920.85</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>R$4920.85</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
